--- a/Warehouse Manager/Database/Items.xlsx
+++ b/Warehouse Manager/Database/Items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\warehouse_manager\Defaults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\Warehouse Manager\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E783E515-9041-45D7-B6F6-4A580254A843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E648938-4F9E-42FB-98B4-CA2B2DD58E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0270BF02-2EDC-4F4D-ACDE-63720E74BCA9}" name="Tabella1" displayName="Tabella1" ref="A1:V51" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:V51" xr:uid="{0270BF02-2EDC-4F4D-ACDE-63720E74BCA9}"/>
   <tableColumns count="22">
+    <tableColumn id="2" xr3:uid="{5879DD5D-5A71-4B20-93D0-E436BB2FED71}" name="Name"/>
     <tableColumn id="1" xr3:uid="{E752DF51-CACE-4403-9379-B8DFBA835A60}" name="Sn" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5879DD5D-5A71-4B20-93D0-E436BB2FED71}" name="Name"/>
     <tableColumn id="3" xr3:uid="{CB0B827B-F73B-4544-9D0C-980252D8331F}" name="Packaging Type"/>
     <tableColumn id="4" xr3:uid="{4AC820B6-986D-4732-A830-53F1390D11FE}" name="Packaging Quantity"/>
     <tableColumn id="5" xr3:uid="{AA05F8E5-EAFC-4CA1-A4A6-42E097255608}" name="Description"/>
@@ -1044,18 +1044,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1119,11 +1120,11 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
         <v>8792296472580</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1185,11 +1186,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
         <v>8740012615482</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1251,11 +1252,11 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
         <v>9861207801640</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1317,11 +1318,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
         <v>6012791254003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1383,11 +1384,11 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3">
         <v>6716502650085</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -1446,11 +1447,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
         <v>2043753267054</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1512,11 +1513,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
         <v>6168021634974</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1581,11 +1582,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3">
         <v>7688077832904</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1647,11 +1648,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3">
         <v>8605951231424</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1713,11 +1714,11 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
         <v>1163238761072</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1779,11 +1780,11 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3">
         <v>6316892945078</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1842,11 +1843,11 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3">
         <v>1865097032972</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1911,11 +1912,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3">
         <v>9418553859922</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1974,11 +1975,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3">
         <v>3225967840242</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2043,11 +2044,11 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3">
         <v>3675625841261</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2109,11 +2110,11 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3">
         <v>8710073997389</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2175,11 +2176,11 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3">
         <v>9628820067891</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2241,11 +2242,11 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3">
         <v>7838779560530</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -2304,11 +2305,11 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3">
         <v>7561851192224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
@@ -2367,11 +2368,11 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3">
         <v>1836885216532</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2430,11 +2431,11 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3">
         <v>3205998343537</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -2493,11 +2494,11 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3">
         <v>3176620311746</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2556,11 +2557,11 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3">
         <v>9786209571178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2622,11 +2623,11 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="3">
         <v>2435806330824</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>83</v>
@@ -2688,11 +2689,11 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3">
         <v>5695885381450</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2757,11 +2758,11 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="3">
         <v>2648940918652</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2826,11 +2827,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3">
         <v>5771394278981</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2872,11 +2873,11 @@
         <v>300</v>
       </c>
       <c r="P28">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>26250</v>
+        <v>21000</v>
       </c>
       <c r="R28">
         <v>1200</v>
@@ -2892,11 +2893,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3">
         <v>3533529471857</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -2961,11 +2962,11 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="3">
         <v>7398454314502</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
       </c>
       <c r="C30" t="s">
         <v>83</v>
@@ -3007,11 +3008,11 @@
         <v>300</v>
       </c>
       <c r="P30">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="R30">
         <v>600</v>
@@ -3027,11 +3028,11 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="3">
         <v>7636536148275</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -3096,11 +3097,11 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3">
         <v>2654093619393</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
@@ -3159,11 +3160,11 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3">
         <v>8222252841707</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3225,11 +3226,11 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3">
         <v>6263490087549</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3291,11 +3292,11 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="3">
         <v>4657009497505</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3357,11 +3358,11 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3">
         <v>2853659988987</v>
-      </c>
-      <c r="B36" t="s">
-        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>83</v>
@@ -3397,17 +3398,17 @@
         <v>94</v>
       </c>
       <c r="N36">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="O36">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="P36">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q36">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>6760</v>
       </c>
       <c r="S36">
         <v>1500</v>
@@ -3420,11 +3421,11 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="3">
         <v>2928949171775</v>
-      </c>
-      <c r="B37" t="s">
-        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3489,11 +3490,11 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="3">
         <v>7496733422534</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
@@ -3552,11 +3553,11 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="3">
         <v>7250030042290</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
@@ -3618,11 +3619,11 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="3">
         <v>8635315128593</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
@@ -3681,11 +3682,11 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="3">
         <v>1991831479117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
@@ -3750,11 +3751,11 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="3">
         <v>6983968005861</v>
-      </c>
-      <c r="B42" t="s">
-        <v>129</v>
       </c>
       <c r="C42" t="s">
         <v>83</v>
@@ -3813,11 +3814,11 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="3">
         <v>8582231850503</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -3876,11 +3877,11 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="3">
         <v>1140002674293</v>
-      </c>
-      <c r="B44" t="s">
-        <v>133</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -3942,11 +3943,11 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3">
         <v>6173200653703</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -4005,11 +4006,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="3">
         <v>1994319705304</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4068,11 +4069,11 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="3">
         <v>8469701745293</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4131,11 +4132,11 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="3">
         <v>4347668189572</v>
-      </c>
-      <c r="B48" t="s">
-        <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
@@ -4194,11 +4195,11 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="3">
         <v>7011258015397</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -4260,11 +4261,11 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="3">
         <v>5836344443744</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>83</v>
@@ -4326,11 +4327,11 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="3">
         <v>4574688715507</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4408,7 +4409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>

--- a/Warehouse Manager/Database/Items.xlsx
+++ b/Warehouse Manager/Database/Items.xlsx
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>905</v>
+        <v>1905</v>
       </c>
       <c r="N2" t="n">
         <v>50</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2109</v>
+        <v>3109</v>
       </c>
       <c r="N3" t="n">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="N6" t="n">
         <v>120</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>471</v>
+        <v>671</v>
       </c>
       <c r="N8" t="n">
         <v>150</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>742</v>
+        <v>1042</v>
       </c>
       <c r="N9" t="n">
         <v>200</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>713</v>
+        <v>1013</v>
       </c>
       <c r="N10" t="n">
         <v>220</v>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>113</v>
+        <v>1013</v>
       </c>
       <c r="N13" t="n">
         <v>600</v>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1188</v>
+        <v>2688</v>
       </c>
       <c r="N14" t="n">
         <v>200</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1612</v>
+        <v>2112</v>
       </c>
       <c r="N19" t="n">
         <v>100</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>713</v>
+        <v>1013</v>
       </c>
       <c r="N20" t="n">
         <v>80</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1712</v>
+        <v>2212</v>
       </c>
       <c r="N22" t="n">
         <v>120</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>805</v>
+        <v>1805</v>
       </c>
       <c r="N23" t="n">
         <v>30</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="N28" t="n">
         <v>350</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="N29" t="n">
         <v>400</v>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="N31" t="n">
         <v>350</v>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="N33" t="n">
         <v>300</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="N35" t="n">
         <v>300</v>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>494</v>
+        <v>894</v>
       </c>
       <c r="N36" t="n">
         <v>260</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>292</v>
+        <v>592</v>
       </c>
       <c r="N39" t="n">
         <v>400</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1094</v>
+        <v>1694</v>
       </c>
       <c r="N40" t="n">
         <v>200</v>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="N41" t="n">
         <v>350</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="N42" t="n">
         <v>400</v>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2996</v>
+        <v>3496</v>
       </c>
       <c r="N43" t="n">
         <v>400</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1939</v>
+        <v>2539</v>
       </c>
       <c r="N44" t="n">
         <v>300</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2188</v>
+        <v>2688</v>
       </c>
       <c r="N45" t="n">
         <v>300</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1350</v>
+        <v>1750</v>
       </c>
       <c r="N46" t="n">
         <v>200</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>461</v>
+        <v>661</v>
       </c>
       <c r="N47" t="n">
         <v>100</v>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="N48" t="n">
         <v>250</v>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>949</v>
+        <v>1349</v>
       </c>
       <c r="N49" t="n">
         <v>300</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1587</v>
+        <v>2587</v>
       </c>
       <c r="N50" t="n">
         <v>100</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="N51" t="n">
         <v>500</v>

--- a/Warehouse Manager/Database/Items.xlsx
+++ b/Warehouse Manager/Database/Items.xlsx
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="N6" t="n">
         <v>120</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>256</v>
+        <v>456</v>
       </c>
       <c r="N7" t="n">
         <v>400</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1042</v>
+        <v>1642</v>
       </c>
       <c r="N9" t="n">
         <v>200</v>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1013</v>
+        <v>1313</v>
       </c>
       <c r="N13" t="n">
         <v>600</v>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2688</v>
+        <v>3188</v>
       </c>
       <c r="N14" t="n">
         <v>200</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2225</v>
+        <v>2725</v>
       </c>
       <c r="N15" t="n">
         <v>150</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1313</v>
+        <v>1613</v>
       </c>
       <c r="N16" t="n">
         <v>150</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="N18" t="n">
         <v>350</v>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1310</v>
+        <v>1810</v>
       </c>
       <c r="N21" t="n">
         <v>20</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1805</v>
+        <v>2305</v>
       </c>
       <c r="N23" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="N24" t="n">
         <v>300</v>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>456</v>
+        <v>656</v>
       </c>
       <c r="N25" t="n">
         <v>200</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="N28" t="n">
         <v>350</v>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>875</v>
+        <v>1275</v>
       </c>
       <c r="N30" t="n">
         <v>400</v>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>313</v>
+        <v>513</v>
       </c>
       <c r="N33" t="n">
         <v>300</v>
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="N37" t="n">
         <v>200</v>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>875</v>
+        <v>1075</v>
       </c>
       <c r="N38" t="n">
         <v>300</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>592</v>
+        <v>692</v>
       </c>
       <c r="N39" t="n">
         <v>400</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1694</v>
+        <v>1894</v>
       </c>
       <c r="N40" t="n">
         <v>200</v>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>356</v>
+        <v>456</v>
       </c>
       <c r="N41" t="n">
         <v>350</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>456</v>
+        <v>556</v>
       </c>
       <c r="N42" t="n">
         <v>400</v>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>3496</v>
+        <v>4496</v>
       </c>
       <c r="N43" t="n">
         <v>400</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>2539</v>
+        <v>2839</v>
       </c>
       <c r="N44" t="n">
         <v>300</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="N46" t="n">
         <v>200</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>661</v>
+        <v>861</v>
       </c>
       <c r="N47" t="n">
         <v>100</v>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1349</v>
+        <v>1549</v>
       </c>
       <c r="N49" t="n">
         <v>300</v>

--- a/Warehouse Manager/Database/Items.xlsx
+++ b/Warehouse Manager/Database/Items.xlsx
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1905</v>
+        <v>4905</v>
       </c>
       <c r="N2" t="n">
         <v>50</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3109</v>
+        <v>6109</v>
       </c>
       <c r="N3" t="n">
         <v>50</v>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>275</v>
+        <v>1970</v>
       </c>
       <c r="N4" t="n">
         <v>180</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2437</v>
+        <v>5937</v>
       </c>
       <c r="N5" t="n">
         <v>60</v>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>875</v>
+        <v>1507</v>
       </c>
       <c r="N6" t="n">
         <v>120</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>456</v>
+        <v>762</v>
       </c>
       <c r="N7" t="n">
         <v>400</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>671</v>
+        <v>1671</v>
       </c>
       <c r="N8" t="n">
         <v>150</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1642</v>
+        <v>2842</v>
       </c>
       <c r="N9" t="n">
         <v>200</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1013</v>
+        <v>1613</v>
       </c>
       <c r="N10" t="n">
         <v>220</v>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>675</v>
+        <v>1475</v>
       </c>
       <c r="N11" t="n">
         <v>240</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>238</v>
+        <v>681</v>
       </c>
       <c r="N12" t="n">
         <v>680</v>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1313</v>
+        <v>2943</v>
       </c>
       <c r="N13" t="n">
         <v>600</v>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>3188</v>
+        <v>4622</v>
       </c>
       <c r="N14" t="n">
         <v>200</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2725</v>
+        <v>3370</v>
       </c>
       <c r="N15" t="n">
         <v>150</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1613</v>
+        <v>1914</v>
       </c>
       <c r="N16" t="n">
         <v>150</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>216</v>
+        <v>716</v>
       </c>
       <c r="N17" t="n">
         <v>230</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>438</v>
+        <v>1042</v>
       </c>
       <c r="N18" t="n">
         <v>350</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2112</v>
+        <v>4146</v>
       </c>
       <c r="N19" t="n">
         <v>100</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1013</v>
+        <v>2513</v>
       </c>
       <c r="N20" t="n">
         <v>80</v>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1810</v>
+        <v>5626</v>
       </c>
       <c r="N21" t="n">
         <v>20</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2212</v>
+        <v>5214</v>
       </c>
       <c r="N22" t="n">
         <v>120</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2305</v>
+        <v>5305</v>
       </c>
       <c r="N23" t="n">
         <v>30</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>875</v>
+        <v>1618</v>
       </c>
       <c r="N24" t="n">
         <v>300</v>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>656</v>
+        <v>1041</v>
       </c>
       <c r="N25" t="n">
         <v>200</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>238</v>
+        <v>558</v>
       </c>
       <c r="N26" t="n">
         <v>300</v>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>425</v>
+        <v>725</v>
       </c>
       <c r="N27" t="n">
         <v>350</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>445</v>
+        <v>857</v>
       </c>
       <c r="N28" t="n">
         <v>350</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>356</v>
+        <v>1039</v>
       </c>
       <c r="N29" t="n">
         <v>400</v>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1275</v>
+        <v>2228</v>
       </c>
       <c r="N30" t="n">
         <v>400</v>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>438</v>
+        <v>838</v>
       </c>
       <c r="N31" t="n">
         <v>350</v>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>219</v>
+        <v>719</v>
       </c>
       <c r="N32" t="n">
         <v>600</v>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>513</v>
+        <v>1316</v>
       </c>
       <c r="N33" t="n">
         <v>300</v>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>2812</v>
+        <v>8759</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>376</v>
+        <v>986</v>
       </c>
       <c r="N35" t="n">
         <v>300</v>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>894</v>
+        <v>2130</v>
       </c>
       <c r="N36" t="n">
         <v>260</v>
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>430</v>
+        <v>730</v>
       </c>
       <c r="N37" t="n">
         <v>200</v>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1075</v>
+        <v>1275</v>
       </c>
       <c r="N38" t="n">
         <v>300</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>692</v>
+        <v>1703</v>
       </c>
       <c r="N39" t="n">
         <v>400</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1894</v>
+        <v>3298</v>
       </c>
       <c r="N40" t="n">
         <v>200</v>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>456</v>
+        <v>1301</v>
       </c>
       <c r="N41" t="n">
         <v>350</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>556</v>
+        <v>1357</v>
       </c>
       <c r="N42" t="n">
         <v>400</v>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>4496</v>
+        <v>8397</v>
       </c>
       <c r="N43" t="n">
         <v>400</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>2839</v>
+        <v>4681</v>
       </c>
       <c r="N44" t="n">
         <v>300</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2688</v>
+        <v>7203</v>
       </c>
       <c r="N45" t="n">
         <v>300</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1950</v>
+        <v>3360</v>
       </c>
       <c r="N46" t="n">
         <v>200</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>861</v>
+        <v>1585</v>
       </c>
       <c r="N47" t="n">
         <v>100</v>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>875</v>
+        <v>2215</v>
       </c>
       <c r="N48" t="n">
         <v>250</v>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1549</v>
+        <v>3149</v>
       </c>
       <c r="N49" t="n">
         <v>300</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>2587</v>
+        <v>6692</v>
       </c>
       <c r="N50" t="n">
         <v>100</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>286</v>
+        <v>838</v>
       </c>
       <c r="N51" t="n">
         <v>500</v>

--- a/Warehouse Manager/Database/Items.xlsx
+++ b/Warehouse Manager/Database/Items.xlsx
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2842</v>
+        <v>3142</v>
       </c>
       <c r="N9" t="n">
         <v>200</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3370</v>
+        <v>4285</v>
       </c>
       <c r="N15" t="n">
         <v>150</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1914</v>
+        <v>2531</v>
       </c>
       <c r="N16" t="n">
         <v>150</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4146</v>
+        <v>4646</v>
       </c>
       <c r="N19" t="n">
         <v>100</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2513</v>
+        <v>2813</v>
       </c>
       <c r="N20" t="n">
         <v>80</v>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5626</v>
+        <v>6126</v>
       </c>
       <c r="N21" t="n">
         <v>20</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5305</v>
+        <v>5805</v>
       </c>
       <c r="N23" t="n">
         <v>30</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="N26" t="n">
         <v>300</v>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>719</v>
+        <v>819</v>
       </c>
       <c r="N32" t="n">
         <v>600</v>
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="N37" t="n">
         <v>200</v>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1275</v>
+        <v>1475</v>
       </c>
       <c r="N38" t="n">
         <v>300</v>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1703</v>
+        <v>1803</v>
       </c>
       <c r="N39" t="n">
         <v>400</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>3298</v>
+        <v>3898</v>
       </c>
       <c r="N40" t="n">
         <v>200</v>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1301</v>
+        <v>1401</v>
       </c>
       <c r="N41" t="n">
         <v>350</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1357</v>
+        <v>1457</v>
       </c>
       <c r="N42" t="n">
         <v>400</v>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>8397</v>
+        <v>8940</v>
       </c>
       <c r="N43" t="n">
         <v>400</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>4681</v>
+        <v>5025</v>
       </c>
       <c r="N44" t="n">
         <v>300</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>7203</v>
+        <v>8207</v>
       </c>
       <c r="N45" t="n">
         <v>300</v>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>3360</v>
+        <v>3564</v>
       </c>
       <c r="N46" t="n">
         <v>200</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1585</v>
+        <v>1695</v>
       </c>
       <c r="N47" t="n">
         <v>100</v>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3149</v>
+        <v>3380</v>
       </c>
       <c r="N49" t="n">
         <v>300</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>6692</v>
+        <v>7167</v>
       </c>
       <c r="N50" t="n">
         <v>100</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>838</v>
+        <v>938</v>
       </c>
       <c r="N51" t="n">
         <v>500</v>

--- a/Warehouse Manager/Database/Items.xlsx
+++ b/Warehouse Manager/Database/Items.xlsx
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>413</v>
+        <v>113</v>
       </c>
       <c r="N10" t="n">
         <v>220</v>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="N11" t="n">
         <v>240</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>413</v>
+        <v>113</v>
       </c>
       <c r="N13" t="n">
         <v>600</v>
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>688</v>
+        <v>188</v>
       </c>
       <c r="N14" t="n">
         <v>200</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
         <v>230</v>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="N18" t="n">
         <v>350</v>
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="N26" t="n">
         <v>300</v>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="N27" t="n">
         <v>350</v>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="N31" t="n">
         <v>350</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>717</v>
+        <v>301</v>
       </c>
       <c r="N34" t="n">
         <v>100</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="N35" t="n">
         <v>300</v>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="N36" t="n">
         <v>260</v>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
         <v>200</v>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="N39" t="n">
         <v>400</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>494</v>
+        <v>94</v>
       </c>
       <c r="N40" t="n">
         <v>200</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="N41" t="n">
         <v>350</v>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1087</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
         <v>400</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>713</v>
+        <v>113</v>
       </c>
       <c r="N44" t="n">
         <v>300</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1215</v>
+        <v>225</v>
       </c>
       <c r="N45" t="n">
         <v>300</v>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>494</v>
+        <v>94</v>
       </c>
       <c r="N46" t="n">
         <v>200</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="N47" t="n">
         <v>100</v>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="N48" t="n">
         <v>250</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>494</v>
+        <v>94</v>
       </c>
       <c r="N49" t="n">
         <v>300</v>
